--- a/backend/files/finish.xlsx
+++ b/backend/files/finish.xlsx
@@ -489,41 +489,37 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>Наименование работ</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>hours</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" s="11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>2313</t>
         </is>
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2313</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="8">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>subtitle</t>
-        </is>
-      </c>
+      <c r="A3" s="12" t="n"/>
+      <c r="B3" s="13" t="n"/>
+      <c r="C3" s="14" t="n"/>
+      <c r="D3" s="14" t="n"/>
+      <c r="E3" s="14" t="n"/>
+      <c r="F3" s="14" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="8">
       <c r="A4" s="12" t="n"/>
@@ -966,9 +962,6 @@
       <c r="F58" s="12" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:F3"/>
-  </mergeCells>
   <pageMargins left="0.700000047683716" right="0.700000047683716" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" paperHeight="297mm" paperWidth="210mm"/>
 </worksheet>
@@ -1028,27 +1021,27 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>Наименование dsfk</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>e.g.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E2" s="11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>123</t>
         </is>
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>1230</t>
         </is>
       </c>
     </row>
